--- a/medicine/Psychotrope/Malterie/Malterie.xlsx
+++ b/medicine/Psychotrope/Malterie/Malterie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une malterie est le lieu de production du malt à partir de céréales.
 Le maltage consiste à faire germer une céréale (principalement orge et blé) et à la faire sécher rapidement pour préparer l'amidon contenu dans le grain à être dégradé lors de la fabrication de la bière. Le malt trouve d'autres débouchés alimentaires annexes mais reste peu développé à l'échelle locale. 
 La malterie a été très industrialisée depuis les années 1950, au même titre que le secteur de la brasserie. Pour répondre à la demande croissante des petites brasseries qui se sont créées en France depuis environ dix ans, le secteur de la malterie a commencé à s'adapter à de plus petits volumes de production pour proposer des malts locaux et, pour certains, issus de l'agriculture biologique.
-En France, en dehors de quelques brasseurs qui réalisent leur propre malt à petite échelle, il existe de multiples malteries artisanales ou industrielles qui produisent annuellement environ 1,5 million de tonnes de malt[1] par an.
-Soufflet (Groupe InVivo) : 5 malteries[2] en France - million de tonne de malt
+En France, en dehors de quelques brasseurs qui réalisent leur propre malt à petite échelle, il existe de multiples malteries artisanales ou industrielles qui produisent annuellement environ 1,5 million de tonnes de malt par an.
+Soufflet (Groupe InVivo) : 5 malteries en France - million de tonne de malt
 Malteurop, filiale du groupe coopératif Vivescia
 Boortmalt, filiale du groupe coopératif Axereal
 Malteries artisanales créées à la suite du renouveau de la brasserie artisanale depuis 2000
 Malt Fabrique en Côtes-d'Armor : création en 2000 par Emmanuel Faucillon
-Malteurs Echos[3] en Ardèche : création en 2012 par Marie Mardon, Guillaume Bourdon et Baptiste François - fermée en 2018
+Malteurs Echos en Ardèche : création en 2012 par Marie Mardon, Guillaume Bourdon et Baptiste François - fermée en 2018
 Malterie du Vieux Silo en Tarn : création en 2013 par Laurent Coursières
 Malteire des Volcans en Puy-de-Dôme : création en 2017 par Lucile et Alexandre Comptour
 Malt’in Pott en Haute Savoie : création en 2018 par Vincent Le Pottier
@@ -503,7 +515,7 @@
 Maltala en Haut Rhian : création en 2022 par Lise Meinrad
 Malterie de Bourgogne
 La Malterie Occitane
-Les malteries industrielles dont les groupes Malteurop[4] et Soufflet font de la France le 1er exportateur mondial de malt et représente 30% de la production mondiale de malt.
+Les malteries industrielles dont les groupes Malteurop et Soufflet font de la France le 1er exportateur mondial de malt et représente 30% de la production mondiale de malt.
 </t>
         </is>
       </c>
